--- a/Simulador_Investimento.xlsx
+++ b/Simulador_Investimento.xlsx
@@ -1,45 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natally.lima\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julio Teixeira\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD4B65A-9650-45F1-9BBF-F4B10388C648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9808CEF-BE6A-433F-A61D-22F4D01C693A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="267" activeTab="1" xr2:uid="{9B968EF8-FDF9-466A-8A4D-48C4BC348BAC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="0" xr2:uid="{9B968EF8-FDF9-466A-8A4D-48C4BC348BAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculadora_Financeira" sheetId="1" r:id="rId1"/>
     <sheet name="Tabela de Apoio" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="aporte">Calculadora_Financeira!$D$17</definedName>
-    <definedName name="patrimonio">Calculadora_Financeira!$D$20</definedName>
-    <definedName name="qtd_anos">Calculadora_Financeira!$D$18</definedName>
-    <definedName name="rendimento_carteira">Calculadora_Financeira!$D$13</definedName>
-    <definedName name="salario">Calculadora_Financeira!$D$12</definedName>
-    <definedName name="sugestao_investimento">Calculadora_Financeira!$D$14</definedName>
-    <definedName name="taxa_mensal">Calculadora_Financeira!$D$19</definedName>
+    <definedName name="aporte">Calculadora_Financeira!$D$18</definedName>
+    <definedName name="patrimonio">Calculadora_Financeira!$D$21</definedName>
+    <definedName name="qtd_anos">Calculadora_Financeira!$D$19</definedName>
+    <definedName name="rendimento_carteira">Calculadora_Financeira!$D$14</definedName>
+    <definedName name="salario">Calculadora_Financeira!$D$13</definedName>
+    <definedName name="sugestao_investimento">Calculadora_Financeira!$D$15</definedName>
+    <definedName name="taxa_mensal">Calculadora_Financeira!$D$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -147,7 +136,7 @@
     <t>Sugestão de investimento (30%)</t>
   </si>
   <si>
-    <t>CENÁRIOS</t>
+    <t>Cenários</t>
   </si>
 </sst>
 </file>
@@ -252,18 +241,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -306,6 +289,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -611,9 +606,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -633,62 +628,62 @@
     <xf numFmtId="10" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="8" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="8" fontId="7" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="8" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="7" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="7" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -705,49 +700,31 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -756,17 +733,44 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -822,7 +826,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Calculadora_Financeira!$C$35</c:f>
+              <c:f>Calculadora_Financeira!$C$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1137,7 +1141,7 @@
                 <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="bestFit"/>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1164,7 +1168,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Calculadora_Financeira!$B$36:$B$41</c:f>
+              <c:f>Calculadora_Financeira!$B$37:$B$42</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1190,24 +1194,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Calculadora_Financeira!$C$36:$C$41</c:f>
+              <c:f>Calculadora_Financeira!$C$37:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.32</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.08</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.1</c:v>
@@ -1222,7 +1226,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="bestFit"/>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -1860,66 +1864,17 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>105833</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>64180</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>331149</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133493</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagem 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D999C77-8B8F-52F8-5D5F-0EAC47AFEB84}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="1120" t="2086" r="1030"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="105833" y="250447"/>
-          <a:ext cx="5438666" cy="1322379"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>32483</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>105752</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>161192</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1939,10 +1894,60 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DECA1276-DA13-B7AE-E0E7-F45CE84BE65B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="142875"/>
+          <a:ext cx="4933950" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2265,281 +2270,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F5BA5D-06B0-424B-BFBA-574D19C822D3}">
-  <dimension ref="A10:G42"/>
+  <dimension ref="A11:G64"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.453125" customWidth="1"/>
-    <col min="2" max="2" width="36.81640625" customWidth="1"/>
-    <col min="3" max="3" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.08984375" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" customWidth="1"/>
-    <col min="8" max="11" width="8.7265625" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" hidden="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="11" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B11" s="51" t="s">
+    <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:4" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-    </row>
-    <row r="12" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B12" s="45" t="s">
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+    </row>
+    <row r="13" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B13" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="5">
+      <c r="C13" s="42"/>
+      <c r="D13" s="5">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B13" s="47" t="s">
+    <row r="14" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B14" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="6">
+      <c r="C14" s="44"/>
+      <c r="D14" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="49" t="s">
+    <row r="15" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="17">
-        <f>D12*30%</f>
+      <c r="C15" s="46"/>
+      <c r="D15" s="17">
+        <f>D13*30%</f>
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B16" s="42" t="s">
+    <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:4" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-    </row>
-    <row r="17" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B17" s="56" t="s">
+      <c r="C17" s="60"/>
+      <c r="D17" s="61"/>
+    </row>
+    <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B18" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="28">
+      <c r="C18" s="51"/>
+      <c r="D18" s="28">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B18" s="56" t="s">
+    <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B19" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B19" s="56" t="s">
+      <c r="C19" s="51"/>
+      <c r="D19" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B20" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="8">
+      <c r="C20" s="51"/>
+      <c r="D20" s="8">
         <v>1.0789999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="B20" s="58" t="s">
+    <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B21" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="9">
+      <c r="C21" s="53"/>
+      <c r="D21" s="9">
         <f>FV(taxa_mensal,qtd_anos*12,aporte*-1)</f>
-        <v>16755.382799697527</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="60" t="s">
+        <v>12490.870598322032</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="10">
-        <f>D20*$D$13</f>
-        <v>100.53229679818516</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B23" s="54" t="s">
+      <c r="C22" s="55"/>
+      <c r="D22" s="10">
+        <f>D21*$D$14</f>
+        <v>74.945223589932198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:4" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="41" t="s">
+      <c r="C24" s="63"/>
+      <c r="D24" s="64" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="3">
+    <row r="25" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
         <v>2</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B25" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="12">
-        <f>FV($D$19,$A24*12,$D$17*-1)</f>
+      <c r="C25" s="12">
+        <f>FV($D$20,$A25*12,$D$18*-1)</f>
         <v>5445.5254595290435</v>
-      </c>
-      <c r="D24" s="13">
-        <f>C24*rendimento_carteira</f>
-        <v>32.673152757174265</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="3">
-        <v>5</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="12">
-        <f>FV($D$19,$A25*12,$D$17*-1)</f>
-        <v>16755.382799697527</v>
       </c>
       <c r="D25" s="13">
         <f>C25*rendimento_carteira</f>
-        <v>100.53229679818516</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+        <v>32.673152757174265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="12">
-        <f>FV($D$19,$A26*12,$D$17*-1)</f>
-        <v>48656.842506034438</v>
+        <f>FV($D$20,$A26*12,$D$18*-1)</f>
+        <v>16755.382799697527</v>
       </c>
       <c r="D26" s="13">
         <f>C26*rendimento_carteira</f>
-        <v>291.94105503620665</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+        <v>100.53229679818516</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="12">
-        <f>FV($D$19,$A27*12,$D$17*-1)</f>
-        <v>225039.68001941612</v>
+        <f>FV($D$20,$A27*12,$D$18*-1)</f>
+        <v>48656.842506034438</v>
       </c>
       <c r="D27" s="13">
         <f>C27*rendimento_carteira</f>
+        <v>291.94105503620665</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>20</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="12">
+        <f>FV($D$20,$A28*12,$D$18*-1)</f>
+        <v>225039.68001941612</v>
+      </c>
+      <c r="D28" s="13">
+        <f>C28*rendimento_carteira</f>
         <v>1350.2380801164968</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="3">
+    <row r="29" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
         <v>30</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B29" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="15">
-        <f>FV($D$19,$A28*12,$D$17*-1)</f>
+      <c r="C29" s="15">
+        <f>FV($D$20,$A29*12,$D$18*-1)</f>
         <v>864433.93100094295</v>
       </c>
-      <c r="D28" s="16">
-        <f>C28*rendimento_carteira</f>
+      <c r="D29" s="16">
+        <f>C29*rendimento_carteira</f>
         <v>5186.6035860056581</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="19" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="19"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="25" t="s">
+      <c r="C32" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="19"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C33" s="26">
         <f>aporte</f>
         <v>200</v>
       </c>
-      <c r="D32" s="27"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="24" t="s">
+      <c r="D33" s="27"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C36" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D36" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="4" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="21">
-        <f>VLOOKUP($C$31&amp;"-"&amp;B36,'Tabela de Apoio'!$A:$D,4,FALSE)</f>
-        <v>0.32</v>
-      </c>
-      <c r="D36" s="29">
-        <f>C36*$C$32</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="4" t="s">
+      <c r="C37" s="57">
+        <f>VLOOKUP($C$32&amp;"-"&amp;B37,'Tabela de Apoio'!$A:$D,4,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D37" s="56">
+        <f>C37*$C$33</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="21">
-        <f>VLOOKUP($C$31&amp;"-"&amp;B37,'Tabela de Apoio'!$A:$D,4,FALSE)</f>
-        <v>0.35</v>
-      </c>
-      <c r="D37" s="29">
-        <f t="shared" ref="D37:D40" si="0">C37*$C$32</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="4" t="s">
+      <c r="C38" s="21">
+        <f>VLOOKUP($C$32&amp;"-"&amp;B38,'Tabela de Apoio'!$A:$D,4,FALSE)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D38" s="29">
+        <f t="shared" ref="D38:D41" si="0">C38*$C$33</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="21">
-        <f>VLOOKUP($C$31&amp;"-"&amp;B38,'Tabela de Apoio'!$A:$D,4,FALSE)</f>
-        <v>0.08</v>
-      </c>
-      <c r="D38" s="29">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="C39" s="21">
-        <f>VLOOKUP($C$31&amp;"-"&amp;B39,'Tabela de Apoio'!$A:$D,4,FALSE)</f>
+        <f>VLOOKUP($C$32&amp;"-"&amp;B39,'Tabela de Apoio'!$A:$D,4,FALSE)</f>
         <v>0.05</v>
       </c>
       <c r="D39" s="29">
@@ -2547,56 +2539,85 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" s="21">
-        <f>VLOOKUP($C$31&amp;"-"&amp;B40,'Tabela de Apoio'!$A:$D,4,FALSE)</f>
-        <v>0.1</v>
+        <f>VLOOKUP($C$32&amp;"-"&amp;B40,'Tabela de Apoio'!$A:$D,4,FALSE)</f>
+        <v>0.05</v>
       </c>
       <c r="D40" s="29">
         <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="21">
+        <f>VLOOKUP($C$32&amp;"-"&amp;B41,'Tabela de Apoio'!$A:$D,4,FALSE)</f>
+        <v>0.2</v>
+      </c>
+      <c r="D41" s="29">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="21">
+        <f>VLOOKUP($C$32&amp;"-"&amp;B42,'Tabela de Apoio'!$A:$D,4,FALSE)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D42" s="29">
+        <f>C42*$C$33</f>
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="21">
-        <f>VLOOKUP($C$31&amp;"-"&amp;B41,'Tabela de Apoio'!$A:$D,4,FALSE)</f>
-        <v>0.1</v>
-      </c>
-      <c r="D41" s="29">
-        <f>C41*$C$32</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="23">
-        <f>SUM(D36:D41)</f>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="23">
+        <f>SUM(D37:D42)</f>
         <v>200</v>
       </c>
     </row>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31" xr:uid="{DF6F161B-08C7-48A2-84CD-A9BEE1FEC2F3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32" xr:uid="{DF6F161B-08C7-48A2-84CD-A9BEE1FEC2F3}">
       <formula1>"Conservador,Moderado,Agressivo"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2610,19 +2631,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B75DD9-2212-406E-A69C-C073326D22CA}">
   <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>29</v>
       </c>
@@ -2636,7 +2657,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="str">
         <f>B3&amp;"-"&amp;C3</f>
         <v>Conservador-PAPEL</v>
@@ -2654,7 +2675,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f t="shared" ref="A4:A20" si="0">B4&amp;"-"&amp;C4</f>
         <v>Conservador-TIJOLO</v>
@@ -2676,7 +2697,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-HÍBRIDOS</v>
@@ -2691,7 +2712,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-FOFs</v>
@@ -2706,7 +2727,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-DESENVOLVIMENTO</v>
@@ -2721,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-HOTELARIAS</v>
@@ -2736,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-PAPEL</v>
@@ -2751,7 +2772,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-TIJOLO</v>
@@ -2766,7 +2787,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-HÍBRIDOS</v>
@@ -2781,7 +2802,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-FOFs</v>
@@ -2796,7 +2817,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-DESENVOLVIMENTO</v>
@@ -2811,7 +2832,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-HOTELARIAS</v>
@@ -2826,7 +2847,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-PAPEL</v>
@@ -2841,7 +2862,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-TIJOLO</v>
@@ -2856,7 +2877,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-HÍBRIDOS</v>
@@ -2871,7 +2892,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-FOFs</v>
@@ -2886,7 +2907,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-DESENVOLVIMENTO</v>
@@ -2901,7 +2922,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-HOTELARIAS</v>

--- a/Simulador_Investimento.xlsx
+++ b/Simulador_Investimento.xlsx
@@ -5,30 +5,41 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julio Teixeira\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natally.lima\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9808CEF-BE6A-433F-A61D-22F4D01C693A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B9C5A8-F2FF-4496-A241-FFD4E62EE895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="0" xr2:uid="{9B968EF8-FDF9-466A-8A4D-48C4BC348BAC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{9B968EF8-FDF9-466A-8A4D-48C4BC348BAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculadora_Financeira" sheetId="1" r:id="rId1"/>
     <sheet name="Tabela de Apoio" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="aporte">Calculadora_Financeira!$D$18</definedName>
-    <definedName name="patrimonio">Calculadora_Financeira!$D$21</definedName>
-    <definedName name="qtd_anos">Calculadora_Financeira!$D$19</definedName>
-    <definedName name="rendimento_carteira">Calculadora_Financeira!$D$14</definedName>
-    <definedName name="salario">Calculadora_Financeira!$D$13</definedName>
-    <definedName name="sugestao_investimento">Calculadora_Financeira!$D$15</definedName>
-    <definedName name="taxa_mensal">Calculadora_Financeira!$D$20</definedName>
+    <definedName name="aporte">Calculadora_Financeira!$D$19</definedName>
+    <definedName name="patrimonio">Calculadora_Financeira!$D$22</definedName>
+    <definedName name="qtd_anos">Calculadora_Financeira!$D$20</definedName>
+    <definedName name="rendimento_carteira">Calculadora_Financeira!$D$15</definedName>
+    <definedName name="salario">Calculadora_Financeira!$D$14</definedName>
+    <definedName name="sugestao_investimento">Calculadora_Financeira!$D$16</definedName>
+    <definedName name="taxa_mensal">Calculadora_Financeira!$D$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -147,7 +158,7 @@
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,14 +243,6 @@
       <name val="Segoe UI Semibold"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -656,10 +659,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -700,6 +699,51 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -727,50 +771,9 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -782,6 +785,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFC000"/>
       <color rgb="FF1D7D52"/>
       <color rgb="FF59996D"/>
       <color rgb="FF30B274"/>
@@ -826,7 +830,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Calculadora_Financeira!$C$36</c:f>
+              <c:f>Calculadora_Financeira!$C$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1168,7 +1172,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Calculadora_Financeira!$B$37:$B$42</c:f>
+              <c:f>Calculadora_Financeira!$B$38:$B$43</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1194,7 +1198,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Calculadora_Financeira!$C$37:$C$42</c:f>
+              <c:f>Calculadora_Financeira!$C$38:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1868,13 +1872,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>32483</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>105752</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>161192</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1903,15 +1907,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1940,8 +1944,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="247650" y="142875"/>
-          <a:ext cx="4933950" cy="1571625"/>
+          <a:off x="276225" y="247650"/>
+          <a:ext cx="5181600" cy="1581150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2270,354 +2274,338 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F5BA5D-06B0-424B-BFBA-574D19C822D3}">
-  <dimension ref="A11:G64"/>
+  <dimension ref="A12:G44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="11" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7109375" hidden="1"/>
+    <col min="1" max="1" width="4.453125" customWidth="1"/>
+    <col min="2" max="2" width="36.81640625" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" customWidth="1"/>
+    <col min="8" max="11" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:4" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="47" t="s">
+    <row r="12" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B13" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-    </row>
-    <row r="13" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B13" s="41" t="s">
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+    </row>
+    <row r="14" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B14" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="5">
+      <c r="C14" s="55"/>
+      <c r="D14" s="5">
         <v>2000</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B14" s="43" t="s">
+    <row r="15" spans="2:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B15" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="6">
+      <c r="C15" s="57"/>
+      <c r="D15" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="45" t="s">
+    <row r="16" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="17">
-        <f>D13*30%</f>
+      <c r="C16" s="59"/>
+      <c r="D16" s="17">
+        <f>D14*30%</f>
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:4" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="59" t="s">
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B18" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
-    </row>
-    <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B18" s="50" t="s">
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
+    </row>
+    <row r="19" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B19" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="28">
+      <c r="C19" s="46"/>
+      <c r="D19" s="26">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B19" s="50" t="s">
+    <row r="20" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B20" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="7">
+      <c r="C20" s="46"/>
+      <c r="D20" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B20" s="50" t="s">
+    <row r="21" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B21" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="8">
+      <c r="C21" s="46"/>
+      <c r="D21" s="8">
         <v>1.0789999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="52" t="s">
+    <row r="22" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B22" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="9">
+      <c r="C22" s="48"/>
+      <c r="D22" s="9">
         <f>FV(taxa_mensal,qtd_anos*12,aporte*-1)</f>
         <v>12490.870598322032</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="54" t="s">
+    <row r="23" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="10">
-        <f>D21*$D$14</f>
+      <c r="C23" s="50"/>
+      <c r="D23" s="10">
+        <f>D22*$D$15</f>
         <v>74.945223589932198</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:4" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="62" t="s">
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B25" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="63"/>
-      <c r="D24" s="64" t="s">
+      <c r="C25" s="44"/>
+      <c r="D25" s="42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+    <row r="26" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="3">
         <v>2</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B26" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="12">
-        <f>FV($D$20,$A25*12,$D$18*-1)</f>
+      <c r="C26" s="12">
+        <f>FV($D$21,$A26*12,$D$19*-1)</f>
         <v>5445.5254595290435</v>
-      </c>
-      <c r="D25" s="13">
-        <f>C25*rendimento_carteira</f>
-        <v>32.673152757174265</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>5</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="12">
-        <f>FV($D$20,$A26*12,$D$18*-1)</f>
-        <v>16755.382799697527</v>
       </c>
       <c r="D26" s="13">
         <f>C26*rendimento_carteira</f>
-        <v>100.53229679818516</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+        <v>32.673152757174265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" s="12">
-        <f>FV($D$20,$A27*12,$D$18*-1)</f>
-        <v>48656.842506034438</v>
+        <f>FV($D$21,$A27*12,$D$19*-1)</f>
+        <v>16755.382799697527</v>
       </c>
       <c r="D27" s="13">
         <f>C27*rendimento_carteira</f>
-        <v>291.94105503620665</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+        <v>100.53229679818516</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" s="12">
-        <f>FV($D$20,$A28*12,$D$18*-1)</f>
-        <v>225039.68001941612</v>
+        <f>FV($D$21,$A28*12,$D$19*-1)</f>
+        <v>48656.842506034438</v>
       </c>
       <c r="D28" s="13">
         <f>C28*rendimento_carteira</f>
+        <v>291.94105503620665</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="12">
+        <f>FV($D$21,$A29*12,$D$19*-1)</f>
+        <v>225039.68001941612</v>
+      </c>
+      <c r="D29" s="13">
+        <f>C29*rendimento_carteira</f>
         <v>1350.2380801164968</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
+    <row r="30" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="3">
         <v>30</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B30" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="15">
-        <f>FV($D$20,$A29*12,$D$18*-1)</f>
+      <c r="C30" s="15">
+        <f>FV($D$21,$A30*12,$D$19*-1)</f>
         <v>864433.93100094295</v>
       </c>
-      <c r="D29" s="16">
-        <f>C29*rendimento_carteira</f>
+      <c r="D30" s="16">
+        <f>C30*rendimento_carteira</f>
         <v>5186.6035860056581</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="19" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C33" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="19"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="25" t="s">
+      <c r="D33" s="63"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C34" s="24">
         <f>aporte</f>
         <v>200</v>
       </c>
-      <c r="D33" s="27"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="24" t="s">
+      <c r="D34" s="25"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B37" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C37" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D37" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="58" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B38" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="57">
-        <f>VLOOKUP($C$32&amp;"-"&amp;B37,'Tabela de Apoio'!$A:$D,4,FALSE)</f>
+      <c r="C38" s="40">
+        <f>VLOOKUP($C$33&amp;"-"&amp;B38,'Tabela de Apoio'!$A:$D,4,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="D37" s="56">
-        <f>C37*$C$33</f>
+      <c r="D38" s="39">
+        <f>C38*$C$34</f>
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B39" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="21">
-        <f>VLOOKUP($C$32&amp;"-"&amp;B38,'Tabela de Apoio'!$A:$D,4,FALSE)</f>
+      <c r="C39" s="19">
+        <f>VLOOKUP($C$33&amp;"-"&amp;B39,'Tabela de Apoio'!$A:$D,4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="D38" s="29">
-        <f t="shared" ref="D38:D41" si="0">C38*$C$33</f>
+      <c r="D39" s="27">
+        <f t="shared" ref="D39:D42" si="0">C39*$C$34</f>
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B40" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="21">
-        <f>VLOOKUP($C$32&amp;"-"&amp;B39,'Tabela de Apoio'!$A:$D,4,FALSE)</f>
+      <c r="C40" s="19">
+        <f>VLOOKUP($C$33&amp;"-"&amp;B40,'Tabela de Apoio'!$A:$D,4,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D40" s="27">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B41" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="21">
-        <f>VLOOKUP($C$32&amp;"-"&amp;B40,'Tabela de Apoio'!$A:$D,4,FALSE)</f>
+      <c r="C41" s="19">
+        <f>VLOOKUP($C$33&amp;"-"&amp;B41,'Tabela de Apoio'!$A:$D,4,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="D40" s="29">
+      <c r="D41" s="27">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="s">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B42" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="21">
-        <f>VLOOKUP($C$32&amp;"-"&amp;B41,'Tabela de Apoio'!$A:$D,4,FALSE)</f>
+      <c r="C42" s="19">
+        <f>VLOOKUP($C$33&amp;"-"&amp;B42,'Tabela de Apoio'!$A:$D,4,FALSE)</f>
         <v>0.2</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D42" s="27">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="4" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B43" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="21">
-        <f>VLOOKUP($C$32&amp;"-"&amp;B42,'Tabela de Apoio'!$A:$D,4,FALSE)</f>
+      <c r="C43" s="19">
+        <f>VLOOKUP($C$33&amp;"-"&amp;B43,'Tabela de Apoio'!$A:$D,4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="D42" s="29">
-        <f>C42*$C$33</f>
+      <c r="D43" s="27">
+        <f>C43*$C$34</f>
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="23">
-        <f>SUM(D37:D42)</f>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="21">
+        <f>SUM(D38:D43)</f>
         <v>200</v>
       </c>
     </row>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32" xr:uid="{DF6F161B-08C7-48A2-84CD-A9BEE1FEC2F3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33" xr:uid="{DF6F161B-08C7-48A2-84CD-A9BEE1FEC2F3}">
       <formula1>"Conservador,Moderado,Agressivo"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2635,47 +2623,47 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="str">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="str">
         <f>B3&amp;"-"&amp;C3</f>
         <v>Conservador-PAPEL</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="36">
         <v>0.3</v>
       </c>
       <c r="H3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="str">
         <f t="shared" ref="A4:A20" si="0">B4&amp;"-"&amp;C4</f>
         <v>Conservador-TIJOLO</v>
@@ -2686,18 +2674,18 @@
       <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="37">
         <v>0.5</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="30">
         <f>VLOOKUP(G4,$A:$D,4,FALSE)</f>
         <v>0.35</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-HÍBRIDOS</v>
@@ -2708,11 +2696,11 @@
       <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="37">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-FOFs</v>
@@ -2723,11 +2711,11 @@
       <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="37">
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-DESENVOLVIMENTO</v>
@@ -2738,26 +2726,26 @@
       <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-HOTELARIAS</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-PAPEL</v>
@@ -2768,11 +2756,11 @@
       <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="37">
         <v>0.32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-TIJOLO</v>
@@ -2783,11 +2771,11 @@
       <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="37">
         <v>0.35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-HÍBRIDOS</v>
@@ -2798,11 +2786,11 @@
       <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="37">
         <v>0.08</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-FOFs</v>
@@ -2813,11 +2801,11 @@
       <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="37">
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-DESENVOLVIMENTO</v>
@@ -2828,26 +2816,26 @@
       <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="37">
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-HOTELARIAS</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="38">
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-PAPEL</v>
@@ -2858,11 +2846,11 @@
       <c r="C15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="37">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-TIJOLO</v>
@@ -2873,11 +2861,11 @@
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="37">
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-HÍBRIDOS</v>
@@ -2888,11 +2876,11 @@
       <c r="C17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="37">
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-FOFs</v>
@@ -2903,11 +2891,11 @@
       <c r="C18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="37">
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-DESENVOLVIMENTO</v>
@@ -2918,22 +2906,22 @@
       <c r="C19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="37">
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-HOTELARIAS</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D20" s="38">
         <v>0.1</v>
       </c>
     </row>
